--- a/mcmaster_excel/Metric_316_Stainless_Steel_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Metric_316_Stainless_Steel_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,206 +434,124 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FlangeDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>90909A711</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$6.04</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>FlangeDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Size,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>90909A712</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +596,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>90909A713</t>
+          <t>90909A711</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>$6.04</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +618,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,12 +663,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>90909A714</t>
+          <t>90909A712</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +685,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -812,12 +730,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>90909A715</t>
+          <t>90909A713</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -834,7 +752,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +762,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -859,7 +777,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -879,17 +797,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>90909A103</t>
+          <t>90909A714</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -901,7 +819,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,12 +829,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -926,7 +844,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -946,17 +864,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>90909A716</t>
+          <t>90909A715</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -968,7 +886,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +931,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>90909A717</t>
+          <t>90909A103</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>13.52</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +953,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +998,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>90909A718</t>
+          <t>90909A716</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,12 +1065,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>90909A719</t>
+          <t>90909A717</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>14.64</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1169,7 +1087,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1214,12 +1132,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90909A720</t>
+          <t>90909A718</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>14.36</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1236,7 +1154,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1281,12 +1199,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>90909A108</t>
+          <t>90909A719</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1303,7 +1221,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1348,12 +1266,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>90909A119</t>
+          <t>90909A720</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>14.52</t>
+          <t>16.12</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1288,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1380,12 +1298,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1395,7 +1313,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1415,17 +1333,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>90909A130</t>
+          <t>90909A108</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>16.68</t>
+          <t>21.92</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1437,7 +1355,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1447,12 +1365,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1462,7 +1380,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1482,17 +1400,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90909A721</t>
+          <t>90909A119</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1504,7 +1422,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1544,17 +1462,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>90909A722</t>
+          <t>90909A130</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>16.68</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1489,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1611,17 +1529,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>90909A723</t>
+          <t>90909A721</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>15.12</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1556,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1683,12 +1601,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>90909A724</t>
+          <t>90909A722</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1623,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,12 +1668,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>90909A725</t>
+          <t>90909A723</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1690,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1817,12 +1735,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>90909A154</t>
+          <t>90909A724</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1757,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1849,12 +1767,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1864,7 +1782,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1884,17 +1802,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>90909A275</t>
+          <t>90909A725</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1906,7 +1824,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1916,12 +1834,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1931,7 +1849,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1951,17 +1869,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>90909A418</t>
+          <t>90909A154</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1973,7 +1891,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2018,12 +1936,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>90909A726</t>
+          <t>90909A275</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +1958,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2085,12 +2003,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>90909A727</t>
+          <t>90909A418</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>20.06</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,7 +2025,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2152,12 +2070,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>90909A419</t>
+          <t>90909A726</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2092,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2214,17 +2132,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>90909A728</t>
+          <t>90909A727</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>21.92</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2241,7 +2159,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2281,17 +2199,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>90909A729</t>
+          <t>90909A419</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2308,57 +2226,57 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>90909A730</t>
+          <t>90909A728</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2375,7 +2293,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2420,12 +2338,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>90909A425</t>
+          <t>90909A729</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2442,7 +2360,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2487,12 +2405,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>90909A432</t>
+          <t>90909A730</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2509,7 +2427,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2519,12 +2437,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2534,7 +2452,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2554,17 +2472,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>90909A447</t>
+          <t>90909A425</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>18.37</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
+          <t>M6 × 1 mm</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2576,7 +2494,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2586,12 +2504,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2601,7 +2519,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2621,17 +2539,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>90909A459</t>
+          <t>90909A432</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>23.03</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
+          <t>M6 × 1 mm</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2643,7 +2561,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2688,12 +2606,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>90909A479</t>
+          <t>90909A447</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>19.04</t>
+          <t>18.37</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2710,7 +2628,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2755,12 +2673,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>90909A484</t>
+          <t>90909A459</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>22.29</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2777,57 +2695,57 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>17.80</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>90909A485</t>
+          <t>90909A479</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>19.04</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2844,7 +2762,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2884,17 +2802,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>90909A542</t>
+          <t>90909A484</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2911,65 +2829,199 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>90909A485</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>90909A542</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>17.80</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>90909A849</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>14.25</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>316 Stainless Steel</t>
         </is>
